--- a/biology/Zoologie/Girardia/Girardia.xlsx
+++ b/biology/Zoologie/Girardia/Girardia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Girardia est un genre de vers plats d'eau douce de la famille des Dugesiidae.  Le genre regroupe 57 espèces valides[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Girardia est un genre de vers plats d'eau douce de la famille des Dugesiidae.  Le genre regroupe 57 espèces valides.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,14 +551,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Girardia Ball (d), 1974[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Girardia Ball (d), 1974.
 Ce nom de genre a été créé en l'honneur du zoologiste Charles Frédéric Girard (1822-1895).
-Homonymie
-Ce nom de genre ne doit pas être confondu avec Girardia S.F.Gray, 1821, un genre d'algues rouges synonyme de Bangia.
-Liste des espèces
-Selon la base de données World Register of Marine Species                               (14 janvier 2024)[1], le genre Girardia contient les espèces suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Girardia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Girardia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Homonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nom de genre ne doit pas être confondu avec Girardia S.F.Gray, 1821, un genre d'algues rouges synonyme de Bangia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Girardia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Girardia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de données World Register of Marine Species                               (14 janvier 2024), le genre Girardia contient les espèces suivantes :
 Girardia anceps (Kenk, 1930)
 Girardia anderlani (Kawakatsu &amp; Hauser, 1983)
 Girardia andina (Borelli, 1895)
@@ -602,8 +688,43 @@
 Girardia tomasi Lenguas Francavilla, Negrete, Martínez-Aquino, Damborenea &amp; Brusa, 2021
 Girardia typhlomexicana (Mitchell &amp; Kawakatsu, 1973)
 Girardia ururiograndeana (Kawakatsu, Hauser &amp; Ponce de Leon, 1992)
-Synonymes, reclassements
-D'après World Register of Marine Species                               (14 janvier 2024)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Girardia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Girardia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes, reclassements</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (14 janvier 2024) :
 l'espèce Girardia dimorpha (Bohmig, 1902) est synonyme de Girardia festai (Borelli, 1898)
 l'espèce Girardia jimi Martins, 1970 est synonyme de Girardia tigrina (Girard, 1850)
 l'espèce Girardia miltgeni (Gourbault, 1980) est synonyme de Girardia arimana (Hyman, 1957)
